--- a/InputData/ctrl-settings/EoSEUwGDPiR/Elasticity of Sectoral Energy Use wrt Per Capita GDP in Recession.xlsx
+++ b/InputData/ctrl-settings/EoSEUwGDPiR/Elasticity of Sectoral Energy Use wrt Per Capita GDP in Recession.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\ctrl-settings\EoSEUwGDPiR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\OneDrive\Desktop\20200523\EoSEUwGDPiR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D9AD62-3D99-4959-9671-C9AD23FDFF1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -40,62 +41,35 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={9BCD9485-F1A4-40FD-BB58-F0A0A7E87A67}</author>
     <author>tc={3173A2DD-4786-4F52-86ED-8AE93DDEE36B}</author>
     <author>tc={4E216A21-C86C-4DEA-9464-D11AEE4E2E6E}</author>
   </authors>
   <commentList>
-    <comment ref="B73" authorId="0" shapeId="0">
+    <comment ref="B73" authorId="0" shapeId="0" xr:uid="{9BCD9485-F1A4-40FD-BB58-F0A0A7E87A67}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     22% reduction - lockdown week 1</t>
-        </r>
       </text>
     </comment>
-    <comment ref="C73" authorId="1" shapeId="0">
+    <comment ref="C73" authorId="1" shapeId="0" xr:uid="{3173A2DD-4786-4F52-86ED-8AE93DDEE36B}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     22% reduction - lockdown month 1</t>
-        </r>
       </text>
     </comment>
-    <comment ref="D73" authorId="2" shapeId="0">
+    <comment ref="D73" authorId="2" shapeId="0" xr:uid="{4E216A21-C86C-4DEA-9464-D11AEE4E2E6E}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     4% reduction - lockdown with partial easing</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -103,44 +77,26 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={20DA70A6-C6CE-4F37-9D74-6058D5AB5411}</author>
     <author>tc={E5905FA1-553E-42BB-91D1-79C691547478}</author>
   </authors>
   <commentList>
-    <comment ref="B23" authorId="0" shapeId="0">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{20DA70A6-C6CE-4F37-9D74-6058D5AB5411}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Difference between counterfactual (trend-based) monthly estimate and the Apr-May '20 (20% reduced) estimate</t>
-        </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="1" shapeId="0">
+    <comment ref="C29" authorId="1" shapeId="0" xr:uid="{E5905FA1-553E-42BB-91D1-79C691547478}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     20% reduction - S&amp;P Global</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -148,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="568">
   <si>
     <t>About</t>
   </si>
@@ -1477,9 +1433,6 @@
     <t>the easing of lockdown restrictions in early May, and almost near levels of consumption a week before announcement of initial lockdown.</t>
   </si>
   <si>
-    <t xml:space="preserve">We assume a projected decrease in FY2021 based on estimates of ICRA credit rating agency, in the base case scenario of partial lifting </t>
-  </si>
-  <si>
     <t>of lockdown in non-red zones in May &amp; June 2020 and resumption of full operations by industrial and commercial establishments from July 2020).</t>
   </si>
   <si>
@@ -1487,9 +1440,6 @@
   </si>
   <si>
     <t>https://posoco.in/covid-19/</t>
-  </si>
-  <si>
-    <t>We have estimates of impacted demand of petroleum products during the first month of lockdown in April 2020.</t>
   </si>
   <si>
     <t>We assume the reduction in demand would continue during May, and the demand deficit would gradually be made up</t>
@@ -1617,12 +1567,6 @@
   </si>
   <si>
     <t>million BTU/barrel</t>
-  </si>
-  <si>
-    <t>million BTU/l</t>
-  </si>
-  <si>
-    <t>BTU/l</t>
   </si>
   <si>
     <r>
@@ -1661,15 +1605,6 @@
   </si>
   <si>
     <t>BTU</t>
-  </si>
-  <si>
-    <t>Source: McKinsey</t>
-  </si>
-  <si>
-    <t>https://www.mckinsey.com/featured-insights/india/getting-ahead-of-coronavirus-saving-lives-and-livelihoods-in-india</t>
-  </si>
-  <si>
-    <t>Percentage Reduction in Real GDP</t>
   </si>
   <si>
     <t>ATF calculations</t>
@@ -1780,9 +1715,6 @@
     <t xml:space="preserve">crisis (although at a reduced GDP growth rate), with limited impacts on domestic energy consumption. </t>
   </si>
   <si>
-    <t>The impacts were predominantly seen on international trading activities.</t>
-  </si>
-  <si>
     <t>India Notes</t>
   </si>
   <si>
@@ -1796,18 +1728,6 @@
   </si>
   <si>
     <t>Sources:</t>
-  </si>
-  <si>
-    <t>Projected reduction in real GDP</t>
-  </si>
-  <si>
-    <t>McKinsey</t>
-  </si>
-  <si>
-    <t>Getting ahead of coronavirus: Saving lives and livelihoods in India</t>
-  </si>
-  <si>
-    <t>Exhibit 1, Scenario 2</t>
   </si>
   <si>
     <t xml:space="preserve">Post-COVID reduction in coal-based electricity generation </t>
@@ -1954,11 +1874,58 @@
   <si>
     <t xml:space="preserve">To estimate energy reduction at sector level, we first compute the relative shares of individual fuels within </t>
   </si>
+  <si>
+    <t xml:space="preserve">We assume a projected decrease in FY2021 based on estimates of ICRA credit rating agency (in the base case scenario of partial lifting </t>
+  </si>
+  <si>
+    <t>million BTU/liter</t>
+  </si>
+  <si>
+    <t>We have data of impacted demand of petroleum products during the first month of lockdown in April 2020.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Source: See variable </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ctrl-settings/GDPGR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>See EPS variable</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ctrl-settings/GDPGR</t>
+    </r>
+  </si>
+  <si>
+    <t>Average projected reduction in GDP growth rate</t>
+  </si>
+  <si>
+    <t>Percentage Reduction in GDP growth</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2710,19 +2677,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Comma 2" xfId="4"/>
-    <cellStyle name="Comma 2 2" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="4" xr:uid="{7D57BC8A-24B1-40AC-B90A-1D80711E8B3E}"/>
+    <cellStyle name="Comma 2 2" xfId="3" xr:uid="{8ACFC2AD-F149-4DDC-916E-62AD32A1EC90}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
@@ -3066,7 +3033,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3074,6 +3040,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3496,7 +3463,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3504,6 +3470,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5148,509 +5115,495 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="61.86328125" customWidth="1"/>
-    <col min="5" max="5" width="63.86328125" customWidth="1"/>
+    <col min="2" max="2" width="61.85546875" customWidth="1"/>
+    <col min="5" max="5" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>531</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B4" s="19" t="s">
-        <v>533</v>
-      </c>
-      <c r="E4" s="19" t="s">
+      <c r="E11" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>534</v>
-      </c>
-      <c r="E5" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B6" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>535</v>
-      </c>
-      <c r="E7" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B9" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="19" t="s">
-        <v>542</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>543</v>
-      </c>
-      <c r="E11" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>414</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="C13" s="9"/>
       <c r="E13" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="C15" s="9"/>
       <c r="E15" s="5" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="E17" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>366</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19"/>
       <c r="E19" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="21" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="E23" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>334</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="E25" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>546</v>
+      </c>
+      <c r="E29" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>547</v>
+      </c>
+      <c r="E31" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="19" t="s">
-        <v>547</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
+    </row>
+    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="E34" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="E29" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
-        <v>559</v>
-      </c>
-      <c r="E31" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B32"/>
-    </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="19" t="s">
-        <v>564</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" s="4"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A54" s="4" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>518</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A55" s="4" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A56" s="4" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A57" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A58" s="4"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A59" s="4" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A60" s="4"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A61" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A62" s="4" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A63" s="4" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A64" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A65" s="4" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A66" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A67" s="4"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>526</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="E6" r:id="rId2"/>
-    <hyperlink ref="B12" r:id="rId3"/>
-    <hyperlink ref="E12" r:id="rId4"/>
-    <hyperlink ref="E18" r:id="rId5"/>
-    <hyperlink ref="B24" r:id="rId6"/>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{287E1B16-95BB-4F82-90AE-8132D010DD74}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{4906AF93-2CA4-42BC-BCB4-9829D957CD0E}"/>
+    <hyperlink ref="E12" r:id="rId3" xr:uid="{545C016A-0370-48D4-9D51-F9B6A862F4C9}"/>
+    <hyperlink ref="E18" r:id="rId4" xr:uid="{D7381A8F-412D-41FA-96E3-6EC25C6F845C}"/>
+    <hyperlink ref="B24" r:id="rId5" xr:uid="{4609F16E-C77E-4F3B-9E78-CEB4738DB54F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D07934-BFE5-46E5-8B75-94BE9A49A173}">
   <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1328125" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.59765625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.3984375" customWidth="1"/>
-    <col min="16" max="16" width="11.59765625" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="117"/>
-      <c r="F7" s="147" t="s">
+      <c r="F7" s="145" t="s">
         <v>322</v>
       </c>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147" t="s">
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145" t="s">
         <v>323</v>
       </c>
-      <c r="J7" s="147"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147" t="s">
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145" t="s">
         <v>324</v>
       </c>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147" t="s">
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145" t="s">
         <v>325</v>
       </c>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="147"/>
-    </row>
-    <row r="8" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P7" s="145"/>
+      <c r="Q7" s="145"/>
+    </row>
+    <row r="8" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F8" s="72"/>
       <c r="G8" s="73"/>
       <c r="H8" s="139" t="s">
@@ -5666,7 +5619,7 @@
       <c r="P8" s="73"/>
       <c r="Q8" s="75"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>326</v>
       </c>
@@ -5701,9 +5654,9 @@
       <c r="P9" s="73"/>
       <c r="Q9" s="77"/>
     </row>
-    <row r="10" spans="1:20" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>302</v>
@@ -5757,7 +5710,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>305</v>
       </c>
@@ -5829,7 +5782,7 @@
         <v>-2.8386714421945451E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>307</v>
       </c>
@@ -5901,7 +5854,7 @@
         <v>-0.10734920159230901</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>308</v>
       </c>
@@ -5973,12 +5926,12 @@
         <v>-0.21692774042187515</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>309</v>
       </c>
       <c r="B14" s="131" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C14" s="28">
         <v>12705</v>
@@ -6045,7 +5998,7 @@
         <v>-6.2758510044164689E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>310</v>
       </c>
@@ -6117,7 +6070,7 @@
         <v>-0.18320707061768049</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>311</v>
       </c>
@@ -6189,10 +6142,10 @@
         <v>-0.30741107247583882</v>
       </c>
       <c r="T16" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>312</v>
       </c>
@@ -6264,7 +6217,7 @@
         <v>-0.16640744305283142</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>314</v>
       </c>
@@ -6334,7 +6287,7 @@
         <v>-0.10605794894565748</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>315</v>
       </c>
@@ -6406,7 +6359,7 @@
         <v>-0.12237327313366458</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>317</v>
       </c>
@@ -6478,7 +6431,7 @@
         <v>-0.22871814487772885</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>319</v>
       </c>
@@ -6548,7 +6501,7 @@
         <v>-0.12119622455218003</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
         <v>297</v>
       </c>
@@ -6618,7 +6571,7 @@
         <v>-0.116054197874515</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>320</v>
       </c>
@@ -6628,12 +6581,12 @@
       <c r="Q23" s="29"/>
       <c r="R23" s="29"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G24" s="29"/>
       <c r="O24" s="29"/>
@@ -6641,52 +6594,52 @@
       <c r="Q24" s="29"/>
       <c r="R24" s="29"/>
     </row>
-    <row r="25" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="D29" s="147" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D29" s="145" t="s">
         <v>322</v>
       </c>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147" t="s">
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145" t="s">
         <v>323</v>
       </c>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="147" t="s">
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145" t="s">
         <v>324</v>
       </c>
-      <c r="K29" s="147"/>
-      <c r="L29" s="147"/>
-      <c r="M29" s="147" t="s">
+      <c r="K29" s="145"/>
+      <c r="L29" s="145"/>
+      <c r="M29" s="145" t="s">
         <v>325</v>
       </c>
-      <c r="N29" s="147"/>
-      <c r="O29" s="147"/>
-    </row>
-    <row r="30" spans="1:19" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="N29" s="145"/>
+      <c r="O29" s="145"/>
+    </row>
+    <row r="30" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
+        <v>491</v>
+      </c>
+      <c r="B30" s="52" t="s">
         <v>498</v>
       </c>
-      <c r="B30" s="52" t="s">
-        <v>505</v>
-      </c>
       <c r="C30" s="8" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="D30" s="128">
         <v>43922</v>
@@ -6728,9 +6681,9 @@
         <v>303</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B31" s="29">
         <f>(F75/H75)*E16</f>
@@ -6793,9 +6746,9 @@
         <v>2472.8404422986241</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B32" s="29">
         <f>(G75/H75)*E16</f>
@@ -6858,18 +6811,18 @@
         <v>1979.6484607123007</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="29"/>
       <c r="D33" s="29"/>
       <c r="O33" s="1" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="P33" s="127">
         <f>SUM(P31:P32)</f>
         <v>4452.4889030109243</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="O34" s="1" t="s">
         <v>304</v>
       </c>
@@ -6878,47 +6831,47 @@
         <v>-0.48880724420081234</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>296</v>
       </c>
       <c r="B54" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
         <v>296</v>
       </c>
       <c r="G56" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G57" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="F58" s="145" t="s">
-        <v>503</v>
-      </c>
-      <c r="G58" s="146"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F58" s="146" t="s">
+        <v>496</v>
+      </c>
+      <c r="G58" s="147"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F59" s="35" t="s">
         <v>306</v>
       </c>
       <c r="G59" s="123" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F60" s="124">
         <v>1051</v>
       </c>
@@ -6926,7 +6879,7 @@
         <v>6471.9</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F61" s="124">
         <v>796.1</v>
       </c>
@@ -6934,7 +6887,7 @@
         <v>2971.9</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F62" s="124">
         <v>564.4</v>
       </c>
@@ -6942,7 +6895,7 @@
         <v>2618.5</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F63" s="124">
         <v>927.6</v>
       </c>
@@ -6950,7 +6903,7 @@
         <v>2390.9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F64" s="124">
         <v>765</v>
       </c>
@@ -6958,60 +6911,60 @@
         <v>1684.4</v>
       </c>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F65" s="124">
         <v>1133.3</v>
       </c>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F66" s="124">
         <v>944.5</v>
       </c>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F67" s="124">
         <v>936.2</v>
       </c>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F68" s="124">
         <v>843.3</v>
       </c>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F69" s="124">
         <v>770</v>
       </c>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F70" s="124">
         <v>726.8</v>
       </c>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F71" s="124">
         <v>644.1</v>
       </c>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F72" s="124">
         <v>418.7</v>
       </c>
     </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F73" s="124">
         <v>397.2</v>
       </c>
     </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F74" s="124">
         <v>292.5</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.45">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="75" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F75" s="126">
         <f>SUM(F60:F74)</f>
         <v>11210.700000000003</v>
@@ -7027,22 +6980,22 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="H8:K8"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1"/>
-    <hyperlink ref="B27" r:id="rId2"/>
-    <hyperlink ref="G57" r:id="rId3"/>
-    <hyperlink ref="B55" r:id="rId4"/>
+    <hyperlink ref="B25" r:id="rId1" xr:uid="{46F84C07-8B76-4803-9AC8-E778AEAE7709}"/>
+    <hyperlink ref="B27" r:id="rId2" xr:uid="{3C79B181-8DCA-4026-9F7E-839A9B198B93}"/>
+    <hyperlink ref="G57" r:id="rId3" xr:uid="{33DEBB05-E553-458F-8A6D-30712EFC501B}"/>
+    <hyperlink ref="B55" r:id="rId4" xr:uid="{D253E461-31D6-461C-AEFF-FAE810CF5E36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -7051,22 +7004,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.1328125" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -7074,52 +7027,52 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="7">
         <f>'Calculations-India'!E49</f>
-        <v>0.96250076789248973</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>6.0156297993280612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="14">
         <f>'Calculations-India'!F49</f>
-        <v>4.9999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="7">
         <f>'Calculations-India'!B49</f>
-        <v>0.12696072295031863</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.79350451843949155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="7">
         <f>'Calculations-India'!C49</f>
-        <v>8.8459152384982934E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.5528697024061433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="7">
         <f>'Calculations-India'!D49</f>
-        <v>0.37447472423554096</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2.340467026472131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -7127,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -7135,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -7149,29 +7102,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C8B748-2BD2-4B51-A80B-DC98B95F83B4}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="29.3984375" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.265625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>295</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>294</v>
       </c>
@@ -7179,12 +7132,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7197,7 +7150,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -7210,7 +7163,7 @@
         <v>-2.2322065325916494E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -7223,9 +7176,9 @@
         <v>-5.0928005450720119E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B7" s="22">
         <f>SUM('BIFUbC-India'!D6,'BIFUbC-India'!D16,'BIFUbC-India'!D26,'BIFUbC-India'!D36,'BIFUbC-India'!D46,'BIFUbC-India'!D56,'BIFUbC-India'!D66,'BIFUbC-India'!D76)/SUM('BIFUbC-India'!C2:C81)</f>
@@ -7236,9 +7189,9 @@
         <v>-0.18320707061768049</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B8" s="22">
         <f>SUM('BIFUbC-India'!D9,'BIFUbC-India'!D19,'BIFUbC-India'!D29,'BIFUbC-India'!D39,'BIFUbC-India'!D49,'BIFUbC-India'!D59,'BIFUbC-India'!D69,'BIFUbC-India'!D79)/SUM('BIFUbC-India'!C2:C81)</f>
@@ -7249,9 +7202,9 @@
         <v>-0.12237327313366458</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B9" s="22">
         <f>SUM('BIFUbC-India'!D10,'BIFUbC-India'!D20,'BIFUbC-India'!D30,'BIFUbC-India'!D40,'BIFUbC-India'!D50,'BIFUbC-India'!D60,'BIFUbC-India'!D70,'BIFUbC-India'!D80)/SUM('BIFUbC-India'!C2:C81)</f>
@@ -7262,12 +7215,12 @@
         <v>-2.8386714421945451E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -7280,7 +7233,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -7293,7 +7246,7 @@
         <v>-2.2322065325916494E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -7306,9 +7259,9 @@
         <v>-5.0928005450720119E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B15" s="22">
         <f>SUM('BCEU-India'!D20:D25,'BCEU-India'!D80:D85)/SUM('BCEU-India'!D2:D121)</f>
@@ -7319,9 +7272,9 @@
         <v>-0.18320707061768049</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B16" s="22">
         <f>SUM('BCEU-India'!D38:D43,'BCEU-India'!D98:D103)/SUM('BCEU-India'!D2:D121)</f>
@@ -7332,9 +7285,9 @@
         <v>-0.10734920159230901</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B17" s="22">
         <f>SUM('BCEU-India'!D44:D49,'BCEU-India'!D104:D109)/SUM('BCEU-India'!D2:D121)</f>
@@ -7345,9 +7298,9 @@
         <v>-0.12237327313366458</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B18" s="22">
         <f>SUM('BCEU-India'!D50:D55,'BCEU-India'!D110:D115)/SUM('BCEU-India'!D2:D121)</f>
@@ -7358,12 +7311,12 @@
         <v>-2.8386714421945451E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -7376,7 +7329,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -7389,7 +7342,7 @@
         <v>-2.2322065325916494E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -7402,9 +7355,9 @@
         <v>-5.0928005450720119E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B24" s="22">
         <f>SUM('BCEU-India'!D140:D145)/SUM('BCEU-India'!D122:D181)</f>
@@ -7415,9 +7368,9 @@
         <v>-0.18320707061768049</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B25" s="22">
         <f>SUM('BCEU-India'!D158:D163)/SUM('BCEU-India'!D122:D181)</f>
@@ -7428,9 +7381,9 @@
         <v>-0.10734920159230901</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B26" s="22">
         <f>SUM('BCEU-India'!D164:D169)/SUM('BCEU-India'!D122:D181)</f>
@@ -7441,9 +7394,9 @@
         <v>-0.12237327313366458</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B27" s="22">
         <f>SUM('BCEU-India'!D170:D175)/SUM('BCEU-India'!D122:D181)</f>
@@ -7454,15 +7407,15 @@
         <v>-2.8386714421945451E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>308</v>
       </c>
@@ -7475,9 +7428,9 @@
         <v>-0.21692774042187515</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B31" s="22">
         <f>F39/SUM(B39,F39,I39)</f>
@@ -7488,9 +7441,9 @@
         <v>-0.18320707061768049</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B32" s="6">
         <f>I3/SUM(B39,F39,I39)</f>
@@ -7501,21 +7454,21 @@
         <v>-0.48880724420081234</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E33" s="20" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B34" s="26"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>308</v>
       </c>
@@ -7524,17 +7477,17 @@
         <v>2155.8772077305798</v>
       </c>
       <c r="C35" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E35" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F35" s="29">
         <f>'Petroleum Products'!E15</f>
         <v>5651.1738890946399</v>
       </c>
       <c r="G35" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H35" t="s">
         <v>311</v>
@@ -7544,125 +7497,123 @@
         <v>483.88745955438799</v>
       </c>
       <c r="J35" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36">
         <f>B35*1000</f>
         <v>2155877.2077305797</v>
       </c>
       <c r="C36" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F36">
         <f>F35*1000</f>
         <v>5651173.8890946396</v>
       </c>
       <c r="G36" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="I36">
         <f>I35*1000</f>
         <v>483887.45955438801</v>
       </c>
       <c r="J36" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37">
         <f>B36*'Conversion Factors'!C5</f>
         <v>3041942.7401078478</v>
       </c>
       <c r="C37" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F37">
         <f>F36*'Conversion Factors'!C6</f>
         <v>6837920.405804514</v>
       </c>
       <c r="G37" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="I37">
         <f>'Conversion Factors'!C8</f>
         <v>1.288</v>
       </c>
       <c r="J37" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38">
         <f>B37*1000</f>
         <v>3041942740.1078477</v>
       </c>
       <c r="C38" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F38">
         <f>F37*1000</f>
         <v>6837920405.8045139</v>
       </c>
       <c r="G38" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I38">
         <f>I37*1000</f>
         <v>1288</v>
       </c>
       <c r="J38" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" s="21">
         <f>B38*'Conversion Factors'!B19</f>
         <v>95178733006904.734</v>
       </c>
       <c r="C39" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F39" s="21">
         <f>F38*'Conversion Factors'!B24</f>
         <v>250184656262260.28</v>
       </c>
       <c r="G39" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I39">
         <f>I38*'Conversion Factors'!B29</f>
         <v>45934234.998644546</v>
       </c>
       <c r="J39" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
-        <v>-0.2</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="B42" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B43" s="3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>6</v>
       </c>
@@ -7682,7 +7633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -7707,59 +7658,56 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="12">
         <f>B47/$A$42</f>
-        <v>0.12696072295031863</v>
+        <v>0.79350451843949155</v>
       </c>
       <c r="C49" s="12">
         <f t="shared" ref="C49:F49" si="1">C47/$A$42</f>
-        <v>8.8459152384982934E-2</v>
+        <v>0.5528697024061433</v>
       </c>
       <c r="D49" s="12">
         <f t="shared" si="1"/>
-        <v>0.37447472423554096</v>
+        <v>2.340467026472131</v>
       </c>
       <c r="E49" s="12">
         <f t="shared" si="1"/>
-        <v>0.96250076789248973</v>
+        <v>6.0156297993280612</v>
       </c>
       <c r="F49" s="12">
         <f t="shared" si="1"/>
-        <v>4.9999999999999996E-2</v>
+        <v>0.3125</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B43" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3A1846-8FDD-4DE0-8E5B-4E799F5E7339}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1328125" customWidth="1"/>
-    <col min="2" max="2" width="11.73046875" customWidth="1"/>
-    <col min="3" max="3" width="26.73046875" customWidth="1"/>
-    <col min="4" max="4" width="15.3984375" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7768,36 +7716,36 @@
         <v>296</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="119" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2" s="120" t="s">
+        <v>463</v>
+      </c>
+      <c r="C2" s="120" t="s">
         <v>464</v>
       </c>
-      <c r="B2" s="120" t="s">
+      <c r="D2" s="120" t="s">
         <v>465</v>
       </c>
-      <c r="C2" s="120" t="s">
-        <v>466</v>
-      </c>
-      <c r="D2" s="120" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="119"/>
       <c r="B3" s="120" t="s">
+        <v>466</v>
+      </c>
+      <c r="C3" s="120" t="s">
+        <v>467</v>
+      </c>
+      <c r="D3" s="120" t="s">
         <v>468</v>
       </c>
-      <c r="C3" s="120" t="s">
-        <v>469</v>
-      </c>
-      <c r="D3" s="120" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="121" t="s">
         <v>305</v>
       </c>
@@ -7811,9 +7759,9 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="121" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B5" s="120">
         <v>1</v>
@@ -7825,9 +7773,9 @@
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="121" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B6" s="120">
         <v>1</v>
@@ -7839,9 +7787,9 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="121" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B7" s="120">
         <v>1</v>
@@ -7853,7 +7801,7 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="121" t="s">
         <v>311</v>
       </c>
@@ -7867,9 +7815,9 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="121" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B9" s="120">
         <v>1</v>
@@ -7881,9 +7829,9 @@
         <v>7.37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="121" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B10" s="120">
         <v>1</v>
@@ -7895,9 +7843,9 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="121" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B11" s="120">
         <v>1</v>
@@ -7909,113 +7857,113 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="122" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>10700</v>
       </c>
       <c r="C15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>8.5299999999999994</v>
       </c>
       <c r="C16" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="21">
         <v>1254396.248534584</v>
       </c>
       <c r="C17" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="21">
         <v>4974521.5709261429</v>
       </c>
       <c r="C18" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="21">
         <v>31288.798356385338</v>
       </c>
       <c r="C19" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>5.8170000000000002</v>
       </c>
       <c r="C22" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>3.6587828084381581E-2</v>
       </c>
       <c r="C23" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="21">
         <v>36587.828084381581</v>
       </c>
       <c r="C24" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>5670000</v>
       </c>
       <c r="C28" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="29">
         <v>35663.225930624649</v>
       </c>
       <c r="C29" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -8024,20 +7972,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90333234-91DB-442F-89C4-2F1E74944DBD}">
   <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="109" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" style="81"/>
+    <col min="4" max="4" width="9.140625" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -8051,7 +7999,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -8065,7 +8013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -8079,12 +8027,12 @@
         <v>151176231727068.78</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -8098,7 +8046,7 @@
         <v>94065210852398.344</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -8112,7 +8060,7 @@
         <v>132125116869085.16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -8126,7 +8074,7 @@
         <v>33594718161570.844</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -8140,32 +8088,32 @@
         <v>2974736311487.4536</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -8173,7 +8121,7 @@
       <c r="C14" s="21"/>
       <c r="D14" s="118"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -8181,17 +8129,17 @@
       <c r="C15" s="21"/>
       <c r="D15" s="118"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -8199,7 +8147,7 @@
       <c r="C18" s="21"/>
       <c r="D18" s="118"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -8207,7 +8155,7 @@
       <c r="C19" s="21"/>
       <c r="D19" s="118"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -8215,22 +8163,22 @@
       <c r="C20" s="21"/>
       <c r="D20" s="118"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -8238,7 +8186,7 @@
       <c r="C24" s="21"/>
       <c r="D24" s="118"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -8246,37 +8194,37 @@
       <c r="C25" s="21"/>
       <c r="D25" s="118"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -8290,22 +8238,22 @@
         <v>63426109318244.813</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -8319,72 +8267,72 @@
         <v>439387182548789.13</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -8392,22 +8340,22 @@
       <c r="C50" s="21"/>
       <c r="D50" s="118"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -8421,7 +8369,7 @@
         <v>1706332927144617</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>87</v>
       </c>
@@ -8429,37 +8377,37 @@
       <c r="C55" s="21"/>
       <c r="D55" s="118"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="81" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="81" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -8467,7 +8415,7 @@
       <c r="C62" s="21"/>
       <c r="D62" s="118"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>95</v>
       </c>
@@ -8481,12 +8429,12 @@
         <v>282342954017742.38</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>97</v>
       </c>
@@ -8500,7 +8448,7 @@
         <v>175680060277706.38</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>98</v>
       </c>
@@ -8514,7 +8462,7 @@
         <v>218950127982261.88</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>99</v>
       </c>
@@ -8528,7 +8476,7 @@
         <v>62742878670609.406</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>100</v>
       </c>
@@ -8542,32 +8490,32 @@
         <v>5555739999694.8301</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>106</v>
       </c>
@@ -8575,7 +8523,7 @@
       <c r="C74" s="21"/>
       <c r="D74" s="118"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>107</v>
       </c>
@@ -8583,17 +8531,17 @@
       <c r="C75" s="21"/>
       <c r="D75" s="118"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>110</v>
       </c>
@@ -8601,7 +8549,7 @@
       <c r="C78" s="21"/>
       <c r="D78" s="118"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>111</v>
       </c>
@@ -8609,7 +8557,7 @@
       <c r="C79" s="21"/>
       <c r="D79" s="118"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>112</v>
       </c>
@@ -8617,22 +8565,22 @@
       <c r="C80" s="21"/>
       <c r="D80" s="118"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>116</v>
       </c>
@@ -8640,7 +8588,7 @@
       <c r="C84" s="21"/>
       <c r="D84" s="118"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>117</v>
       </c>
@@ -8648,37 +8596,37 @@
       <c r="C85" s="21"/>
       <c r="D85" s="118"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>124</v>
       </c>
@@ -8692,22 +8640,22 @@
         <v>135605938955637.03</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>128</v>
       </c>
@@ -8721,27 +8669,27 @@
         <v>2193883054703130.8</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>133</v>
       </c>
@@ -8755,7 +8703,7 @@
         <v>91363451154522.672</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>134</v>
       </c>
@@ -8769,42 +8717,42 @@
         <v>10151494572724.744</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>142</v>
       </c>
@@ -8812,22 +8760,22 @@
       <c r="C110" s="21"/>
       <c r="D110" s="118"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>146</v>
       </c>
@@ -8841,7 +8789,7 @@
         <v>1438597707144853.3</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>147</v>
       </c>
@@ -8849,37 +8797,37 @@
       <c r="C115" s="21"/>
       <c r="D115" s="118"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="121" spans="1:4" s="81" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="81" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>154</v>
       </c>
@@ -8887,7 +8835,7 @@
       <c r="C122" s="21"/>
       <c r="D122" s="118"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>155</v>
       </c>
@@ -8901,12 +8849,12 @@
         <v>210239943203169.47</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>157</v>
       </c>
@@ -8920,7 +8868,7 @@
         <v>95563610546895.219</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>158</v>
       </c>
@@ -8934,7 +8882,7 @@
         <v>57338166328137.125</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>159</v>
       </c>
@@ -8948,7 +8896,7 @@
         <v>19112722109379.043</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>160</v>
       </c>
@@ -8962,27 +8910,27 @@
         <v>302837089331859</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>165</v>
       </c>
@@ -8990,7 +8938,7 @@
       <c r="C133" s="21"/>
       <c r="D133" s="118"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>166</v>
       </c>
@@ -8998,7 +8946,7 @@
       <c r="C134" s="21"/>
       <c r="D134" s="118"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>167</v>
       </c>
@@ -9006,17 +8954,17 @@
       <c r="C135" s="21"/>
       <c r="D135" s="118"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>170</v>
       </c>
@@ -9024,7 +8972,7 @@
       <c r="C138" s="21"/>
       <c r="D138" s="118"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>171</v>
       </c>
@@ -9032,7 +8980,7 @@
       <c r="C139" s="21"/>
       <c r="D139" s="118"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>172</v>
       </c>
@@ -9040,22 +8988,22 @@
       <c r="C140" s="21"/>
       <c r="D140" s="118"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>176</v>
       </c>
@@ -9063,7 +9011,7 @@
       <c r="C144" s="21"/>
       <c r="D144" s="118"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>177</v>
       </c>
@@ -9071,7 +9019,7 @@
       <c r="C145" s="21"/>
       <c r="D145" s="118"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>178</v>
       </c>
@@ -9079,32 +9027,32 @@
       <c r="C146" s="21"/>
       <c r="D146" s="118"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>184</v>
       </c>
@@ -9118,47 +9066,47 @@
         <v>127719816673916.83</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>193</v>
       </c>
@@ -9172,7 +9120,7 @@
         <v>3747144615263.8594</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>194</v>
       </c>
@@ -9186,42 +9134,42 @@
         <v>416349401695.98431</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>202</v>
       </c>
@@ -9229,22 +9177,22 @@
       <c r="C170" s="21"/>
       <c r="D170" s="118"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>206</v>
       </c>
@@ -9258,7 +9206,7 @@
         <v>108906426810836.59</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>207</v>
       </c>
@@ -9266,32 +9214,32 @@
       <c r="C175" s="21"/>
       <c r="D175" s="118"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>213</v>
       </c>
@@ -9302,20 +9250,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B12846D-4AD3-4929-BC7E-1CAA958D3911}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="113.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" style="81"/>
+    <col min="1" max="1" width="113.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -9329,7 +9277,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>214</v>
       </c>
@@ -9343,7 +9291,7 @@
         <v>62376829023318.594</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>215</v>
       </c>
@@ -9357,7 +9305,7 @@
         <v>248303084303469.91</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -9365,12 +9313,12 @@
       <c r="C4" s="21"/>
       <c r="D4" s="118"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>218</v>
       </c>
@@ -9384,17 +9332,17 @@
         <v>49492892775511.859</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>221</v>
       </c>
@@ -9402,7 +9350,7 @@
       <c r="C9" s="21"/>
       <c r="D9" s="118"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>222</v>
       </c>
@@ -9416,12 +9364,12 @@
         <v>49492892775511.859</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>224</v>
       </c>
@@ -9429,7 +9377,7 @@
       <c r="C12" s="21"/>
       <c r="D12" s="118"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>225</v>
       </c>
@@ -9437,7 +9385,7 @@
       <c r="C13" s="21"/>
       <c r="D13" s="118"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>226</v>
       </c>
@@ -9451,7 +9399,7 @@
         <v>209774119183943.34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>227</v>
       </c>
@@ -9459,17 +9407,17 @@
       <c r="C15" s="21"/>
       <c r="D15" s="118"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>230</v>
       </c>
@@ -9483,22 +9431,22 @@
         <v>1.3008842296103896E+16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>234</v>
       </c>
@@ -9512,7 +9460,7 @@
         <v>454305066667236</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>235</v>
       </c>
@@ -9526,7 +9474,7 @@
         <v>912814806331063.13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>236</v>
       </c>
@@ -9540,12 +9488,12 @@
         <v>192421819712375.16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>238</v>
       </c>
@@ -9559,17 +9507,17 @@
         <v>228862417190496.03</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>241</v>
       </c>
@@ -9577,7 +9525,7 @@
       <c r="C29" s="21"/>
       <c r="D29" s="118"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>242</v>
       </c>
@@ -9591,12 +9539,12 @@
         <v>228862417190496.03</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>244</v>
       </c>
@@ -9610,7 +9558,7 @@
         <v>146765772773884.72</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>245</v>
       </c>
@@ -9624,7 +9572,7 @@
         <v>124551010460660.92</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>246</v>
       </c>
@@ -9638,12 +9586,12 @@
         <v>529412312419931.56</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>248</v>
       </c>
@@ -9651,17 +9599,17 @@
       <c r="C36" s="21"/>
       <c r="D36" s="118"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>251</v>
       </c>
@@ -9669,7 +9617,7 @@
       <c r="C39" s="21"/>
       <c r="D39" s="118"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>252</v>
       </c>
@@ -9683,12 +9631,12 @@
         <v>503588738309366.13</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>254</v>
       </c>
@@ -9696,7 +9644,7 @@
       <c r="C42" s="21"/>
       <c r="D42" s="118"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>255</v>
       </c>
@@ -9704,7 +9652,7 @@
       <c r="C43" s="21"/>
       <c r="D43" s="118"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>256</v>
       </c>
@@ -9712,12 +9660,12 @@
       <c r="C44" s="21"/>
       <c r="D44" s="118"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>258</v>
       </c>
@@ -9731,17 +9679,17 @@
         <v>68494919170594.82</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>261</v>
       </c>
@@ -9755,7 +9703,7 @@
         <v>7505232593032.1016</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>262</v>
       </c>
@@ -9769,12 +9717,12 @@
         <v>59226314110120.883</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>264</v>
       </c>
@@ -9788,7 +9736,7 @@
         <v>858747223539.39026</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>265</v>
       </c>
@@ -9802,47 +9750,47 @@
         <v>359529497146.71466</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>274</v>
       </c>
@@ -9856,12 +9804,12 @@
         <v>1647154454616423.5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>276</v>
       </c>
@@ -9869,7 +9817,7 @@
       <c r="C64" s="21"/>
       <c r="D64" s="118"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>277</v>
       </c>
@@ -9883,7 +9831,7 @@
         <v>2396982808892776</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>278</v>
       </c>
@@ -9897,17 +9845,17 @@
         <v>548176417606920.19</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>281</v>
       </c>
@@ -9921,7 +9869,7 @@
         <v>548176417606920.19</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>282</v>
       </c>
@@ -9935,12 +9883,12 @@
         <v>548176417606920.19</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>284</v>
       </c>
@@ -9954,7 +9902,7 @@
         <v>1209547641609381.8</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>285</v>
       </c>
@@ -9968,7 +9916,7 @@
         <v>322209696667031.25</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>286</v>
       </c>
@@ -9982,12 +9930,12 @@
         <v>591585903780558.5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>288</v>
       </c>
@@ -10001,17 +9949,17 @@
         <v>2306510850327013.5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>291</v>
       </c>
@@ -10025,7 +9973,7 @@
         <v>2600691557793615.5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>292</v>
       </c>
@@ -10039,7 +9987,7 @@
         <v>1772953517495779.8</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>293</v>
       </c>
@@ -10050,78 +9998,78 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC50367-EE74-4E81-ADCB-232371598AAF}">
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.1328125" customWidth="1"/>
-    <col min="2" max="2" width="17.86328125" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" customWidth="1"/>
-    <col min="6" max="6" width="12.1328125" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="68.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="117"/>
     </row>
-    <row r="12" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="112" t="s">
         <v>369</v>
       </c>
@@ -10141,7 +10089,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="114" t="s">
         <v>425</v>
       </c>
@@ -10161,7 +10109,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="115" t="s">
         <v>30</v>
       </c>
@@ -10181,7 +10129,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>28</v>
       </c>
@@ -10189,7 +10137,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>43902</v>
       </c>
@@ -10197,7 +10145,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>43917</v>
       </c>
@@ -10205,7 +10153,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>43948</v>
       </c>
@@ -10213,7 +10161,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>43964</v>
       </c>
@@ -10221,7 +10169,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>43971</v>
       </c>
@@ -10229,7 +10177,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>375</v>
       </c>
@@ -10238,7 +10186,7 @@
         <v>-0.22935387248609329</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>376</v>
       </c>
@@ -10247,7 +10195,7 @@
         <v>-0.22464698331193839</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>377</v>
       </c>
@@ -10256,7 +10204,7 @@
         <v>-4.3217800599058623E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>383</v>
       </c>
@@ -10265,7 +10213,7 @@
         <v>-5.1347881899871634E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="137" t="s">
         <v>385</v>
       </c>
@@ -10280,7 +10228,7 @@
       <c r="J28" s="137"/>
       <c r="K28" s="137"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="83"/>
       <c r="B29" s="84"/>
       <c r="C29" s="84"/>
@@ -10295,7 +10243,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="63.75" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A30" s="85" t="s">
         <v>387</v>
       </c>
@@ -10330,7 +10278,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="87">
         <v>1</v>
       </c>
@@ -10365,7 +10313,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="88" t="s">
         <v>397</v>
       </c>
@@ -10400,7 +10348,7 @@
         <v>587.80999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="88" t="s">
         <v>398</v>
       </c>
@@ -10435,7 +10383,7 @@
         <v>593.0035979999999</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="88" t="s">
         <v>399</v>
       </c>
@@ -10470,7 +10418,7 @@
         <v>638.73362599999996</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="92" t="s">
         <v>400</v>
       </c>
@@ -10505,7 +10453,7 @@
         <v>731.38944500000025</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="92" t="s">
         <v>401</v>
       </c>
@@ -10540,7 +10488,7 @@
         <v>739.34202300000015</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="92" t="s">
         <v>402</v>
       </c>
@@ -10575,7 +10523,7 @@
         <v>822.13079499999992</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="88" t="s">
         <v>403</v>
       </c>
@@ -10610,7 +10558,7 @@
         <v>836.727261</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="88" t="s">
         <v>404</v>
       </c>
@@ -10645,7 +10593,7 @@
         <v>837.22004600000025</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="88" t="s">
         <v>405</v>
       </c>
@@ -10680,7 +10628,7 @@
         <v>898.51850399999978</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="88" t="s">
         <v>406</v>
       </c>
@@ -10715,7 +10663,7 @@
         <v>968.25316599999974</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="95" t="s">
         <v>407</v>
       </c>
@@ -10750,7 +10698,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="97" t="s">
         <v>408</v>
       </c>
@@ -10785,7 +10733,7 @@
         <v>7.7610713290329585</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="99" t="s">
         <v>409</v>
       </c>
@@ -10820,7 +10768,7 @@
         <v>5.1175416324522383</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="101" t="s">
         <v>410</v>
       </c>
@@ -10835,7 +10783,7 @@
       <c r="J45" s="103"/>
       <c r="K45" s="103"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="104" t="s">
         <v>411</v>
       </c>
@@ -10850,7 +10798,7 @@
       <c r="J46" s="103"/>
       <c r="K46" s="103"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="105" t="s">
         <v>412</v>
       </c>
@@ -10865,7 +10813,7 @@
       <c r="J47" s="103"/>
       <c r="K47" s="103"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="106" t="s">
         <v>413</v>
       </c>
@@ -10880,17 +10828,17 @@
       <c r="J48" s="107"/>
       <c r="K48" s="107"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>387</v>
       </c>
@@ -10901,7 +10849,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="88" t="s">
         <v>397</v>
       </c>
@@ -10917,7 +10865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="88" t="s">
         <v>398</v>
       </c>
@@ -10933,7 +10881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="88" t="s">
         <v>399</v>
       </c>
@@ -10949,7 +10897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="92" t="s">
         <v>400</v>
       </c>
@@ -10965,7 +10913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="92" t="s">
         <v>401</v>
       </c>
@@ -10981,7 +10929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="92" t="s">
         <v>402</v>
       </c>
@@ -10997,7 +10945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="88" t="s">
         <v>403</v>
       </c>
@@ -11013,7 +10961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="88" t="s">
         <v>404</v>
       </c>
@@ -11029,7 +10977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="88" t="s">
         <v>405</v>
       </c>
@@ -11045,7 +10993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="88" t="s">
         <v>406</v>
       </c>
@@ -11061,7 +11009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="108" t="s">
         <v>417</v>
       </c>
@@ -11076,7 +11024,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="108" t="s">
         <v>418</v>
       </c>
@@ -11091,9 +11039,9 @@
         <v>420</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="27" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A68" s="67" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B68" s="29">
         <f>B65/12</f>
@@ -11101,11 +11049,11 @@
       </c>
       <c r="C68" s="20"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="67"/>
       <c r="B69" s="29"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C70" s="138" t="s">
         <v>322</v>
       </c>
@@ -11127,7 +11075,7 @@
       <c r="M70" s="138"/>
       <c r="N70" s="138"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B71" s="35" t="s">
         <v>300</v>
       </c>
@@ -11148,7 +11096,7 @@
       <c r="M71" s="68"/>
       <c r="N71" s="69"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B72" s="26">
         <v>43891</v>
       </c>
@@ -11189,7 +11137,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>424</v>
       </c>
@@ -11246,7 +11194,7 @@
         <v>62.303508842222222</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>363</v>
       </c>
@@ -11255,7 +11203,7 @@
         <v>730.95319017374788</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
         <v>423</v>
       </c>
@@ -11264,7 +11212,7 @@
         <v>747.64210610666669</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>422</v>
       </c>
@@ -11282,12 +11230,12 @@
     <mergeCell ref="L70:N70"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1"/>
-    <hyperlink ref="B20" r:id="rId2"/>
-    <hyperlink ref="B18" r:id="rId3"/>
-    <hyperlink ref="B19" r:id="rId4"/>
-    <hyperlink ref="B21" r:id="rId5"/>
-    <hyperlink ref="A51" r:id="rId6"/>
+    <hyperlink ref="B17" r:id="rId1" xr:uid="{C5A35779-408B-4E54-BF8E-FB2D5ACFBFFC}"/>
+    <hyperlink ref="B20" r:id="rId2" xr:uid="{1C4760E6-465F-4A64-A446-0BD270045867}"/>
+    <hyperlink ref="B18" r:id="rId3" xr:uid="{EECD32F9-5932-4A6C-A369-A77DB548B597}"/>
+    <hyperlink ref="B19" r:id="rId4" xr:uid="{DE0C3CBC-C08E-4BC8-9ACB-AC395E63EBF4}"/>
+    <hyperlink ref="B21" r:id="rId5" xr:uid="{AACC65AB-AFE1-498A-892C-4B9ADD8D4181}"/>
+    <hyperlink ref="A51" r:id="rId6" xr:uid="{2C59E7AD-C8B7-4B9E-BE20-A838F26B8179}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -11296,56 +11244,56 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55D3CDF-2AD0-49F5-A56E-08148D574A2A}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.3984375" customWidth="1"/>
-    <col min="2" max="2" width="13.1328125" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="10.3984375" customWidth="1"/>
-    <col min="7" max="7" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="117"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-0.2</v>
       </c>
@@ -11353,7 +11301,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>337</v>
       </c>
@@ -11361,12 +11309,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="57" t="s">
         <v>357</v>
       </c>
@@ -11384,7 +11332,7 @@
       <c r="M12" s="58"/>
       <c r="N12" s="59"/>
     </row>
-    <row r="13" spans="1:14" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="141" t="s">
         <v>358</v>
       </c>
@@ -11402,7 +11350,7 @@
       <c r="M13" s="142"/>
       <c r="N13" s="143"/>
     </row>
-    <row r="14" spans="1:14" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="144" t="s">
         <v>359</v>
       </c>
@@ -11420,7 +11368,7 @@
       <c r="M14" s="144"/>
       <c r="N14" s="144"/>
     </row>
-    <row r="15" spans="1:14" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="60" t="s">
         <v>338</v>
       </c>
@@ -11464,7 +11412,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="62" t="s">
         <v>352</v>
       </c>
@@ -11506,7 +11454,7 @@
         <v>27930</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
         <v>353</v>
       </c>
@@ -11548,7 +11496,7 @@
         <v>30812</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="27" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="s">
         <v>354</v>
       </c>
@@ -11593,7 +11541,7 @@
         <v>58742</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>1</v>
       </c>
@@ -11631,7 +11579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="67" t="s">
         <v>296</v>
       </c>
@@ -11639,13 +11587,13 @@
         <v>355</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="67"/>
       <c r="B21" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="40.5" x14ac:dyDescent="0.45">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A22" s="67" t="s">
         <v>365</v>
       </c>
@@ -11657,7 +11605,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>362</v>
       </c>
@@ -11667,11 +11615,11 @@
       </c>
       <c r="C23" s="20"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="67"/>
       <c r="B24" s="29"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="138" t="s">
         <v>322</v>
       </c>
@@ -11693,7 +11641,7 @@
       <c r="M25" s="138"/>
       <c r="N25" s="138"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="55"/>
       <c r="E26" s="139" t="s">
         <v>327</v>
@@ -11707,7 +11655,7 @@
       <c r="M26" s="68"/>
       <c r="N26" s="69"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="35" t="s">
         <v>300</v>
       </c>
@@ -11738,7 +11686,7 @@
       <c r="M27" s="68"/>
       <c r="N27" s="69"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="26">
         <v>43891</v>
       </c>
@@ -11779,7 +11727,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>360</v>
       </c>
@@ -11836,7 +11784,7 @@
         <v>5438.5450760806998</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>363</v>
       </c>
@@ -11845,7 +11793,7 @@
         <v>60911.704852103838</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>423</v>
       </c>
@@ -11854,7 +11802,7 @@
         <v>64180.278421376432</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>364</v>
       </c>
@@ -11874,8 +11822,8 @@
     <mergeCell ref="L25:N25"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B21" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{2DD26E6F-4967-4194-B864-9A4F742EE732}"/>
+    <hyperlink ref="B21" r:id="rId2" xr:uid="{B2E51C87-9CBC-47BA-9BDF-27201FC56B01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -11885,54 +11833,54 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18941497-0BD1-4D67-8DD6-CD46433DFD9C}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="117"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>('POSOCO data'!C7-'POSOCO data'!C2)/'POSOCO data'!C2</f>
         <v>-0.22371967654986524</v>
@@ -11941,22 +11889,22 @@
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-0.20399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>296</v>
       </c>
@@ -11964,17 +11912,17 @@
         <v>332</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="56">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>296</v>
       </c>
@@ -11982,46 +11930,46 @@
         <v>334</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B20" r:id="rId2"/>
+    <hyperlink ref="B15" r:id="rId1" xr:uid="{9F635E06-855D-4BA3-85AF-1DFA248F49DF}"/>
+    <hyperlink ref="B20" r:id="rId2" xr:uid="{47E6BE99-C24C-4F01-A3C3-C3270F11C59C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E216E8-8BAE-474B-A18A-2E5D3C7D98E8}">
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.86328125" customWidth="1"/>
-    <col min="3" max="3" width="25.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>298</v>
       </c>
@@ -12029,7 +11977,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12040,7 +11988,7 @@
         <v>3339</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -12052,7 +12000,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A57" si="0">A3+1</f>
         <v>3</v>
@@ -12064,7 +12012,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -12076,7 +12024,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -12088,7 +12036,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="81">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -12100,7 +12048,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -12112,7 +12060,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -12124,7 +12072,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -12136,7 +12084,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -12148,7 +12096,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -12160,7 +12108,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -12172,7 +12120,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -12184,7 +12132,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -12196,7 +12144,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -12208,7 +12156,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -12220,7 +12168,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -12232,7 +12180,7 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -12244,7 +12192,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -12256,7 +12204,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -12268,7 +12216,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -12280,7 +12228,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -12292,7 +12240,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -12304,7 +12252,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -12316,7 +12264,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -12328,7 +12276,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -12340,7 +12288,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -12352,7 +12300,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -12364,7 +12312,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -12376,7 +12324,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -12388,7 +12336,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -12400,7 +12348,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -12412,7 +12360,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -12424,7 +12372,7 @@
         <v>2919</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -12436,7 +12384,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -12448,7 +12396,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -12460,7 +12408,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -12472,7 +12420,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -12484,7 +12432,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -12496,7 +12444,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -12508,7 +12456,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -12520,7 +12468,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -12532,7 +12480,7 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -12544,7 +12492,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -12556,7 +12504,7 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -12568,7 +12516,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -12580,7 +12528,7 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -12592,7 +12540,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -12604,7 +12552,7 @@
         <v>3193</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -12616,7 +12564,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -12628,7 +12576,7 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -12640,7 +12588,7 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -12652,7 +12600,7 @@
         <v>3248</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -12664,7 +12612,7 @@
         <v>3313</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -12676,7 +12624,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -12688,7 +12636,7 @@
         <v>3373</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -12700,51 +12648,51 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C58" s="25"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>296</v>
       </c>
       <c r="B59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C59" s="25"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="C59" s="25"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B60" s="3" t="s">
-        <v>443</v>
-      </c>
       <c r="C60" s="25"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C61" s="25"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C62" s="25"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C63" s="25"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C64" s="25"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="25"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="25"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="25"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B60" r:id="rId1"/>
+    <hyperlink ref="B60" r:id="rId1" xr:uid="{16DC7598-208D-49FB-ADBE-B9B15D91B269}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>

--- a/InputData/ctrl-settings/EoSEUwGDPiR/Elasticity of Sectoral Energy Use wrt Per Capita GDP in Recession.xlsx
+++ b/InputData/ctrl-settings/EoSEUwGDPiR/Elasticity of Sectoral Energy Use wrt Per Capita GDP in Recession.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\OneDrive\Desktop\20200523\EoSEUwGDPiR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\ctrl-settings\EoSEUwGDPiR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D9AD62-3D99-4959-9671-C9AD23FDFF1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <sheet name="Petroleum Products" sheetId="14" r:id="rId10"/>
     <sheet name="EoSEUwGDPiR" sheetId="7" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,35 +40,62 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={9BCD9485-F1A4-40FD-BB58-F0A0A7E87A67}</author>
     <author>tc={3173A2DD-4786-4F52-86ED-8AE93DDEE36B}</author>
     <author>tc={4E216A21-C86C-4DEA-9464-D11AEE4E2E6E}</author>
   </authors>
   <commentList>
-    <comment ref="B73" authorId="0" shapeId="0" xr:uid="{9BCD9485-F1A4-40FD-BB58-F0A0A7E87A67}">
+    <comment ref="B73" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     22% reduction - lockdown week 1</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C73" authorId="1" shapeId="0" xr:uid="{3173A2DD-4786-4F52-86ED-8AE93DDEE36B}">
+    <comment ref="C73" authorId="1" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     22% reduction - lockdown month 1</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D73" authorId="2" shapeId="0" xr:uid="{4E216A21-C86C-4DEA-9464-D11AEE4E2E6E}">
+    <comment ref="D73" authorId="2" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     4% reduction - lockdown with partial easing</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -77,26 +103,44 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={20DA70A6-C6CE-4F37-9D74-6058D5AB5411}</author>
     <author>tc={E5905FA1-553E-42BB-91D1-79C691547478}</author>
   </authors>
   <commentList>
-    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{20DA70A6-C6CE-4F37-9D74-6058D5AB5411}">
+    <comment ref="B23" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Difference between counterfactual (trend-based) monthly estimate and the Apr-May '20 (20% reduced) estimate</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="1" shapeId="0" xr:uid="{E5905FA1-553E-42BB-91D1-79C691547478}">
+    <comment ref="C29" authorId="1" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     20% reduction - S&amp;P Global</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -1925,7 +1969,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2677,19 +2721,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Comma 2" xfId="4" xr:uid="{7D57BC8A-24B1-40AC-B90A-1D80711E8B3E}"/>
-    <cellStyle name="Comma 2 2" xfId="3" xr:uid="{8ACFC2AD-F149-4DDC-916E-62AD32A1EC90}"/>
+    <cellStyle name="Comma 2" xfId="4"/>
+    <cellStyle name="Comma 2 2" xfId="3"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
@@ -3033,6 +3077,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3040,7 +3085,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3463,6 +3507,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3470,7 +3515,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5115,25 +5159,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="61.85546875" customWidth="1"/>
+    <col min="2" max="2" width="61.86328125" customWidth="1"/>
     <col min="5" max="5" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>523</v>
       </c>
@@ -5144,7 +5188,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" s="19" t="s">
         <v>565</v>
       </c>
@@ -5152,23 +5196,23 @@
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="3"/>
       <c r="E6" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E7" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>529</v>
       </c>
@@ -5176,7 +5220,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B10" s="19" t="s">
         <v>530</v>
       </c>
@@ -5184,7 +5228,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>531</v>
       </c>
@@ -5192,7 +5236,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
         <v>414</v>
       </c>
@@ -5200,7 +5244,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>532</v>
       </c>
@@ -5209,11 +5253,11 @@
         <v>536</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B15" s="5" t="s">
         <v>542</v>
       </c>
@@ -5222,7 +5266,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B16" s="19" t="s">
         <v>535</v>
       </c>
@@ -5230,7 +5274,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="17" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>538</v>
       </c>
@@ -5238,7 +5282,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="18" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B18" s="3" t="s">
         <v>366</v>
       </c>
@@ -5246,14 +5290,14 @@
         <v>442</v>
       </c>
     </row>
-    <row r="19" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B19"/>
       <c r="E19" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="20" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B21" s="5" t="s">
         <v>541</v>
       </c>
@@ -5261,7 +5305,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="22" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B22" s="19" t="s">
         <v>543</v>
       </c>
@@ -5269,7 +5313,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="23" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>544</v>
       </c>
@@ -5277,7 +5321,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="24" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B24" s="3" t="s">
         <v>334</v>
       </c>
@@ -5285,16 +5329,16 @@
         <v>447</v>
       </c>
     </row>
-    <row r="25" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B25"/>
       <c r="E25" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="26" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B27" s="5" t="s">
         <v>545</v>
       </c>
@@ -5302,7 +5346,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="28" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B28" s="19" t="s">
         <v>535</v>
       </c>
@@ -5310,7 +5354,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="29" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>546</v>
       </c>
@@ -5318,7 +5362,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="30" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B30" s="3" t="s">
         <v>447</v>
       </c>
@@ -5326,7 +5370,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="31" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>547</v>
       </c>
@@ -5334,10 +5378,10 @@
         <v>550</v>
       </c>
     </row>
-    <row r="32" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B32"/>
     </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B33" s="5" t="s">
         <v>551</v>
       </c>
@@ -5345,7 +5389,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B34" s="19" t="s">
         <v>552</v>
       </c>
@@ -5353,174 +5397,174 @@
         <v>558</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B36" s="3" t="s">
         <v>494</v>
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="4" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="4"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="4" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="4" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" s="4" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" s="4" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" s="4" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>518</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{287E1B16-95BB-4F82-90AE-8132D010DD74}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{4906AF93-2CA4-42BC-BCB4-9829D957CD0E}"/>
-    <hyperlink ref="E12" r:id="rId3" xr:uid="{545C016A-0370-48D4-9D51-F9B6A862F4C9}"/>
-    <hyperlink ref="E18" r:id="rId4" xr:uid="{D7381A8F-412D-41FA-96E3-6EC25C6F845C}"/>
-    <hyperlink ref="B24" r:id="rId5" xr:uid="{4609F16E-C77E-4F3B-9E78-CEB4738DB54F}"/>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="E12" r:id="rId3"/>
+    <hyperlink ref="E18" r:id="rId4"/>
+    <hyperlink ref="B24" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -5528,82 +5572,82 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D07934-BFE5-46E5-8B75-94BE9A49A173}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1328125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="11.3984375" customWidth="1"/>
+    <col min="16" max="16" width="11.59765625" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="117"/>
-      <c r="F7" s="145" t="s">
+      <c r="F7" s="147" t="s">
         <v>322</v>
       </c>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145" t="s">
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147" t="s">
         <v>323</v>
       </c>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145" t="s">
+      <c r="J7" s="147"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="147" t="s">
         <v>324</v>
       </c>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="145" t="s">
+      <c r="M7" s="147"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="147" t="s">
         <v>325</v>
       </c>
-      <c r="P7" s="145"/>
-      <c r="Q7" s="145"/>
-    </row>
-    <row r="8" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="147"/>
+      <c r="Q7" s="147"/>
+    </row>
+    <row r="8" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F8" s="72"/>
       <c r="G8" s="73"/>
       <c r="H8" s="139" t="s">
@@ -5619,7 +5663,7 @@
       <c r="P8" s="73"/>
       <c r="Q8" s="75"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" s="52" t="s">
         <v>326</v>
       </c>
@@ -5654,7 +5698,7 @@
       <c r="P9" s="73"/>
       <c r="Q9" s="77"/>
     </row>
-    <row r="10" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>453</v>
       </c>
@@ -5710,7 +5754,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="27" t="s">
         <v>305</v>
       </c>
@@ -5782,7 +5826,7 @@
         <v>-2.8386714421945451E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="27" t="s">
         <v>307</v>
       </c>
@@ -5854,7 +5898,7 @@
         <v>-0.10734920159230901</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="27" t="s">
         <v>308</v>
       </c>
@@ -5926,7 +5970,7 @@
         <v>-0.21692774042187515</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="27" t="s">
         <v>309</v>
       </c>
@@ -5998,7 +6042,7 @@
         <v>-6.2758510044164689E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" s="27" t="s">
         <v>310</v>
       </c>
@@ -6070,7 +6114,7 @@
         <v>-0.18320707061768049</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" s="27" t="s">
         <v>311</v>
       </c>
@@ -6145,7 +6189,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="27" t="s">
         <v>312</v>
       </c>
@@ -6217,7 +6261,7 @@
         <v>-0.16640744305283142</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="30" t="s">
         <v>314</v>
       </c>
@@ -6287,7 +6331,7 @@
         <v>-0.10605794894565748</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="27" t="s">
         <v>315</v>
       </c>
@@ -6359,7 +6403,7 @@
         <v>-0.12237327313366458</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="31" t="s">
         <v>317</v>
       </c>
@@ -6431,7 +6475,7 @@
         <v>-0.22871814487772885</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="27" t="s">
         <v>319</v>
       </c>
@@ -6501,7 +6545,7 @@
         <v>-0.12119622455218003</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="32" t="s">
         <v>297</v>
       </c>
@@ -6571,7 +6615,7 @@
         <v>-0.116054197874515</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>320</v>
       </c>
@@ -6581,7 +6625,7 @@
       <c r="Q23" s="29"/>
       <c r="R23" s="29"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -6594,44 +6638,44 @@
       <c r="Q24" s="29"/>
       <c r="R24" s="29"/>
     </row>
-    <row r="25" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B27" s="3" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D29" s="145" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="D29" s="147" t="s">
         <v>322</v>
       </c>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145" t="s">
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147" t="s">
         <v>323</v>
       </c>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="145" t="s">
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147" t="s">
         <v>324</v>
       </c>
-      <c r="K29" s="145"/>
-      <c r="L29" s="145"/>
-      <c r="M29" s="145" t="s">
+      <c r="K29" s="147"/>
+      <c r="L29" s="147"/>
+      <c r="M29" s="147" t="s">
         <v>325</v>
       </c>
-      <c r="N29" s="145"/>
-      <c r="O29" s="145"/>
-    </row>
-    <row r="30" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="N29" s="147"/>
+      <c r="O29" s="147"/>
+    </row>
+    <row r="30" spans="1:19" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A30" s="52" t="s">
         <v>491</v>
       </c>
@@ -6681,7 +6725,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>492</v>
       </c>
@@ -6746,7 +6790,7 @@
         <v>2472.8404422986241</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>493</v>
       </c>
@@ -6811,7 +6855,7 @@
         <v>1979.6484607123007</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B33" s="29"/>
       <c r="D33" s="29"/>
       <c r="O33" s="1" t="s">
@@ -6822,7 +6866,7 @@
         <v>4452.4889030109243</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.45">
       <c r="O34" s="1" t="s">
         <v>304</v>
       </c>
@@ -6831,7 +6875,7 @@
         <v>-0.48880724420081234</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>296</v>
       </c>
@@ -6839,12 +6883,12 @@
         <v>555</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B55" s="3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="F56" t="s">
         <v>296</v>
       </c>
@@ -6852,18 +6896,18 @@
         <v>495</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G57" s="3" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F58" s="146" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F58" s="145" t="s">
         <v>496</v>
       </c>
-      <c r="G58" s="147"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G58" s="146"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="F59" s="35" t="s">
         <v>306</v>
       </c>
@@ -6871,7 +6915,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="F60" s="124">
         <v>1051</v>
       </c>
@@ -6879,7 +6923,7 @@
         <v>6471.9</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="F61" s="124">
         <v>796.1</v>
       </c>
@@ -6887,7 +6931,7 @@
         <v>2971.9</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="F62" s="124">
         <v>564.4</v>
       </c>
@@ -6895,7 +6939,7 @@
         <v>2618.5</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="F63" s="124">
         <v>927.6</v>
       </c>
@@ -6903,7 +6947,7 @@
         <v>2390.9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="F64" s="124">
         <v>765</v>
       </c>
@@ -6911,52 +6955,52 @@
         <v>1684.4</v>
       </c>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F65" s="124">
         <v>1133.3</v>
       </c>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F66" s="124">
         <v>944.5</v>
       </c>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F67" s="124">
         <v>936.2</v>
       </c>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F68" s="124">
         <v>843.3</v>
       </c>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F69" s="124">
         <v>770</v>
       </c>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F70" s="124">
         <v>726.8</v>
       </c>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F71" s="124">
         <v>644.1</v>
       </c>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F72" s="124">
         <v>418.7</v>
       </c>
     </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F73" s="124">
         <v>397.2</v>
       </c>
     </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F74" s="124">
         <v>292.5</v>
       </c>
@@ -6964,7 +7008,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F75" s="126">
         <f>SUM(F60:F74)</f>
         <v>11210.700000000003</v>
@@ -6980,22 +7024,22 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="H8:K8"/>
     <mergeCell ref="F58:G58"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="J29:L29"/>
     <mergeCell ref="M29:O29"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="H8:K8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1" xr:uid="{46F84C07-8B76-4803-9AC8-E778AEAE7709}"/>
-    <hyperlink ref="B27" r:id="rId2" xr:uid="{3C79B181-8DCA-4026-9F7E-839A9B198B93}"/>
-    <hyperlink ref="G57" r:id="rId3" xr:uid="{33DEBB05-E553-458F-8A6D-30712EFC501B}"/>
-    <hyperlink ref="B55" r:id="rId4" xr:uid="{D253E461-31D6-461C-AEFF-FAE810CF5E36}"/>
+    <hyperlink ref="B25" r:id="rId1"/>
+    <hyperlink ref="B27" r:id="rId2"/>
+    <hyperlink ref="G57" r:id="rId3"/>
+    <hyperlink ref="B55" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -7004,7 +7048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -7014,12 +7058,12 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="1" max="1" width="41.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -7027,52 +7071,52 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="7">
         <f>'Calculations-India'!E49</f>
-        <v>6.0156297993280612</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.2627144674321689</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="14">
         <f>'Calculations-India'!F49</f>
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.16949152542372883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="7">
         <f>'Calculations-India'!B49</f>
-        <v>0.79350451843949155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.43037533203497846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="7">
         <f>'Calculations-India'!C49</f>
-        <v>0.5528697024061433</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.29986153350841677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="7">
         <f>'Calculations-India'!D49</f>
-        <v>2.340467026472131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.2694058448662406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -7080,7 +7124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -7088,7 +7132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -7102,29 +7146,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C8B748-2BD2-4B51-A80B-DC98B95F83B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.3984375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>295</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="18" t="s">
         <v>294</v>
       </c>
@@ -7132,12 +7176,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7150,7 +7194,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -7163,7 +7207,7 @@
         <v>-2.2322065325916494E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -7176,7 +7220,7 @@
         <v>-5.0928005450720119E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>454</v>
       </c>
@@ -7189,7 +7233,7 @@
         <v>-0.18320707061768049</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>455</v>
       </c>
@@ -7202,7 +7246,7 @@
         <v>-0.12237327313366458</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>456</v>
       </c>
@@ -7215,12 +7259,12 @@
         <v>-2.8386714421945451E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -7233,7 +7277,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -7246,7 +7290,7 @@
         <v>-2.2322065325916494E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -7259,7 +7303,7 @@
         <v>-5.0928005450720119E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>454</v>
       </c>
@@ -7272,7 +7316,7 @@
         <v>-0.18320707061768049</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>457</v>
       </c>
@@ -7285,7 +7329,7 @@
         <v>-0.10734920159230901</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>455</v>
       </c>
@@ -7298,7 +7342,7 @@
         <v>-0.12237327313366458</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>456</v>
       </c>
@@ -7311,12 +7355,12 @@
         <v>-2.8386714421945451E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -7329,7 +7373,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -7342,7 +7386,7 @@
         <v>-2.2322065325916494E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -7355,7 +7399,7 @@
         <v>-5.0928005450720119E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>454</v>
       </c>
@@ -7368,7 +7412,7 @@
         <v>-0.18320707061768049</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>457</v>
       </c>
@@ -7381,7 +7425,7 @@
         <v>-0.10734920159230901</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>455</v>
       </c>
@@ -7394,7 +7438,7 @@
         <v>-0.12237327313366458</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>456</v>
       </c>
@@ -7407,7 +7451,7 @@
         <v>-2.8386714421945451E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="20" t="s">
         <v>3</v>
       </c>
@@ -7415,7 +7459,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>308</v>
       </c>
@@ -7428,7 +7472,7 @@
         <v>-0.21692774042187515</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>458</v>
       </c>
@@ -7441,7 +7485,7 @@
         <v>-0.18320707061768049</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>504</v>
       </c>
@@ -7457,18 +7501,18 @@
         <v>505</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E33" s="20" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>460</v>
       </c>
       <c r="B34" s="26"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>308</v>
       </c>
@@ -7500,7 +7544,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B36">
         <f>B35*1000</f>
         <v>2155877.2077305797</v>
@@ -7523,7 +7567,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B37">
         <f>B36*'Conversion Factors'!C5</f>
         <v>3041942.7401078478</v>
@@ -7546,7 +7590,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B38">
         <f>B37*1000</f>
         <v>3041942740.1078477</v>
@@ -7569,7 +7613,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B39" s="21">
         <f>B38*'Conversion Factors'!B19</f>
         <v>95178733006904.734</v>
@@ -7592,28 +7636,28 @@
         <v>490</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="15">
-        <v>-3.2000000000000001E-2</v>
+        <v>-5.8999999999999997E-2</v>
       </c>
       <c r="B42" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B43" s="3"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B46" s="8" t="s">
         <v>6</v>
       </c>
@@ -7633,7 +7677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -7658,29 +7702,29 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="12">
         <f>B47/$A$42</f>
-        <v>0.79350451843949155</v>
+        <v>0.43037533203497846</v>
       </c>
       <c r="C49" s="12">
         <f t="shared" ref="C49:F49" si="1">C47/$A$42</f>
-        <v>0.5528697024061433</v>
+        <v>0.29986153350841677</v>
       </c>
       <c r="D49" s="12">
         <f t="shared" si="1"/>
-        <v>2.340467026472131</v>
+        <v>1.2694058448662406</v>
       </c>
       <c r="E49" s="12">
         <f t="shared" si="1"/>
-        <v>6.0156297993280612</v>
+        <v>3.2627144674321689</v>
       </c>
       <c r="F49" s="12">
         <f t="shared" si="1"/>
-        <v>0.3125</v>
+        <v>0.16949152542372883</v>
       </c>
     </row>
   </sheetData>
@@ -7690,22 +7734,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3A1846-8FDD-4DE0-8E5B-4E799F5E7339}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.1328125" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" customWidth="1"/>
+    <col min="3" max="3" width="26.73046875" customWidth="1"/>
+    <col min="4" max="4" width="15.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>461</v>
       </c>
@@ -7719,7 +7763,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="119" t="s">
         <v>462</v>
       </c>
@@ -7733,7 +7777,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="119"/>
       <c r="B3" s="120" t="s">
         <v>466</v>
@@ -7745,7 +7789,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="121" t="s">
         <v>305</v>
       </c>
@@ -7759,7 +7803,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="121" t="s">
         <v>469</v>
       </c>
@@ -7773,7 +7817,7 @@
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="121" t="s">
         <v>470</v>
       </c>
@@ -7787,7 +7831,7 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="121" t="s">
         <v>471</v>
       </c>
@@ -7801,7 +7845,7 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="121" t="s">
         <v>311</v>
       </c>
@@ -7815,7 +7859,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="121" t="s">
         <v>472</v>
       </c>
@@ -7829,7 +7873,7 @@
         <v>7.37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="121" t="s">
         <v>473</v>
       </c>
@@ -7843,7 +7887,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="121" t="s">
         <v>474</v>
       </c>
@@ -7857,19 +7901,19 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="122" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>480</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>10700</v>
       </c>
@@ -7877,7 +7921,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>8.5299999999999994</v>
       </c>
@@ -7885,7 +7929,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B17" s="21">
         <v>1254396.248534584</v>
       </c>
@@ -7893,7 +7937,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="21">
         <v>4974521.5709261429</v>
       </c>
@@ -7901,7 +7945,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B19" s="21">
         <v>31288.798356385338</v>
       </c>
@@ -7909,14 +7953,14 @@
         <v>479</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>483</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>5.8170000000000002</v>
       </c>
@@ -7924,7 +7968,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>3.6587828084381581E-2</v>
       </c>
@@ -7932,7 +7976,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B24" s="21">
         <v>36587.828084381581</v>
       </c>
@@ -7940,17 +7984,17 @@
         <v>479</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B25" s="21"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>477</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>5670000</v>
       </c>
@@ -7958,7 +8002,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B29" s="29">
         <v>35663.225930624649</v>
       </c>
@@ -7972,20 +8016,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90333234-91DB-442F-89C4-2F1E74944DBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="109" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="81"/>
+    <col min="4" max="4" width="9.1328125" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -7999,7 +8043,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -8013,7 +8057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -8027,12 +8071,12 @@
         <v>151176231727068.78</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -8046,7 +8090,7 @@
         <v>94065210852398.344</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -8060,7 +8104,7 @@
         <v>132125116869085.16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -8074,7 +8118,7 @@
         <v>33594718161570.844</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -8088,32 +8132,32 @@
         <v>2974736311487.4536</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -8121,7 +8165,7 @@
       <c r="C14" s="21"/>
       <c r="D14" s="118"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -8129,17 +8173,17 @@
       <c r="C15" s="21"/>
       <c r="D15" s="118"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -8147,7 +8191,7 @@
       <c r="C18" s="21"/>
       <c r="D18" s="118"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -8155,7 +8199,7 @@
       <c r="C19" s="21"/>
       <c r="D19" s="118"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -8163,22 +8207,22 @@
       <c r="C20" s="21"/>
       <c r="D20" s="118"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -8186,7 +8230,7 @@
       <c r="C24" s="21"/>
       <c r="D24" s="118"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -8194,37 +8238,37 @@
       <c r="C25" s="21"/>
       <c r="D25" s="118"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -8238,22 +8282,22 @@
         <v>63426109318244.813</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -8267,72 +8311,72 @@
         <v>439387182548789.13</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -8340,22 +8384,22 @@
       <c r="C50" s="21"/>
       <c r="D50" s="118"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -8369,7 +8413,7 @@
         <v>1706332927144617</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>87</v>
       </c>
@@ -8377,37 +8421,37 @@
       <c r="C55" s="21"/>
       <c r="D55" s="118"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="81" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="81" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -8415,7 +8459,7 @@
       <c r="C62" s="21"/>
       <c r="D62" s="118"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>95</v>
       </c>
@@ -8429,12 +8473,12 @@
         <v>282342954017742.38</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>97</v>
       </c>
@@ -8448,7 +8492,7 @@
         <v>175680060277706.38</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>98</v>
       </c>
@@ -8462,7 +8506,7 @@
         <v>218950127982261.88</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>99</v>
       </c>
@@ -8476,7 +8520,7 @@
         <v>62742878670609.406</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>100</v>
       </c>
@@ -8490,32 +8534,32 @@
         <v>5555739999694.8301</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>106</v>
       </c>
@@ -8523,7 +8567,7 @@
       <c r="C74" s="21"/>
       <c r="D74" s="118"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>107</v>
       </c>
@@ -8531,17 +8575,17 @@
       <c r="C75" s="21"/>
       <c r="D75" s="118"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>110</v>
       </c>
@@ -8549,7 +8593,7 @@
       <c r="C78" s="21"/>
       <c r="D78" s="118"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>111</v>
       </c>
@@ -8557,7 +8601,7 @@
       <c r="C79" s="21"/>
       <c r="D79" s="118"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>112</v>
       </c>
@@ -8565,22 +8609,22 @@
       <c r="C80" s="21"/>
       <c r="D80" s="118"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>116</v>
       </c>
@@ -8588,7 +8632,7 @@
       <c r="C84" s="21"/>
       <c r="D84" s="118"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>117</v>
       </c>
@@ -8596,37 +8640,37 @@
       <c r="C85" s="21"/>
       <c r="D85" s="118"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>124</v>
       </c>
@@ -8640,22 +8684,22 @@
         <v>135605938955637.03</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>128</v>
       </c>
@@ -8669,27 +8713,27 @@
         <v>2193883054703130.8</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>133</v>
       </c>
@@ -8703,7 +8747,7 @@
         <v>91363451154522.672</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>134</v>
       </c>
@@ -8717,42 +8761,42 @@
         <v>10151494572724.744</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>142</v>
       </c>
@@ -8760,22 +8804,22 @@
       <c r="C110" s="21"/>
       <c r="D110" s="118"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>146</v>
       </c>
@@ -8789,7 +8833,7 @@
         <v>1438597707144853.3</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>147</v>
       </c>
@@ -8797,37 +8841,37 @@
       <c r="C115" s="21"/>
       <c r="D115" s="118"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="121" spans="1:4" s="81" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A121" s="81" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>154</v>
       </c>
@@ -8835,7 +8879,7 @@
       <c r="C122" s="21"/>
       <c r="D122" s="118"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>155</v>
       </c>
@@ -8849,12 +8893,12 @@
         <v>210239943203169.47</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>157</v>
       </c>
@@ -8868,7 +8912,7 @@
         <v>95563610546895.219</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>158</v>
       </c>
@@ -8882,7 +8926,7 @@
         <v>57338166328137.125</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>159</v>
       </c>
@@ -8896,7 +8940,7 @@
         <v>19112722109379.043</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>160</v>
       </c>
@@ -8910,27 +8954,27 @@
         <v>302837089331859</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>165</v>
       </c>
@@ -8938,7 +8982,7 @@
       <c r="C133" s="21"/>
       <c r="D133" s="118"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>166</v>
       </c>
@@ -8946,7 +8990,7 @@
       <c r="C134" s="21"/>
       <c r="D134" s="118"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>167</v>
       </c>
@@ -8954,17 +8998,17 @@
       <c r="C135" s="21"/>
       <c r="D135" s="118"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>170</v>
       </c>
@@ -8972,7 +9016,7 @@
       <c r="C138" s="21"/>
       <c r="D138" s="118"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>171</v>
       </c>
@@ -8980,7 +9024,7 @@
       <c r="C139" s="21"/>
       <c r="D139" s="118"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>172</v>
       </c>
@@ -8988,22 +9032,22 @@
       <c r="C140" s="21"/>
       <c r="D140" s="118"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>176</v>
       </c>
@@ -9011,7 +9055,7 @@
       <c r="C144" s="21"/>
       <c r="D144" s="118"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>177</v>
       </c>
@@ -9019,7 +9063,7 @@
       <c r="C145" s="21"/>
       <c r="D145" s="118"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>178</v>
       </c>
@@ -9027,32 +9071,32 @@
       <c r="C146" s="21"/>
       <c r="D146" s="118"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>184</v>
       </c>
@@ -9066,47 +9110,47 @@
         <v>127719816673916.83</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>193</v>
       </c>
@@ -9120,7 +9164,7 @@
         <v>3747144615263.8594</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>194</v>
       </c>
@@ -9134,42 +9178,42 @@
         <v>416349401695.98431</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>202</v>
       </c>
@@ -9177,22 +9221,22 @@
       <c r="C170" s="21"/>
       <c r="D170" s="118"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>206</v>
       </c>
@@ -9206,7 +9250,7 @@
         <v>108906426810836.59</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>207</v>
       </c>
@@ -9214,32 +9258,32 @@
       <c r="C175" s="21"/>
       <c r="D175" s="118"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>213</v>
       </c>
@@ -9250,20 +9294,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B12846D-4AD3-4929-BC7E-1CAA958D3911}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="81"/>
+    <col min="1" max="1" width="113.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -9277,7 +9321,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>214</v>
       </c>
@@ -9291,7 +9335,7 @@
         <v>62376829023318.594</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>215</v>
       </c>
@@ -9305,7 +9349,7 @@
         <v>248303084303469.91</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -9313,12 +9357,12 @@
       <c r="C4" s="21"/>
       <c r="D4" s="118"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>218</v>
       </c>
@@ -9332,17 +9376,17 @@
         <v>49492892775511.859</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>221</v>
       </c>
@@ -9350,7 +9394,7 @@
       <c r="C9" s="21"/>
       <c r="D9" s="118"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>222</v>
       </c>
@@ -9364,12 +9408,12 @@
         <v>49492892775511.859</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>224</v>
       </c>
@@ -9377,7 +9421,7 @@
       <c r="C12" s="21"/>
       <c r="D12" s="118"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>225</v>
       </c>
@@ -9385,7 +9429,7 @@
       <c r="C13" s="21"/>
       <c r="D13" s="118"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>226</v>
       </c>
@@ -9399,7 +9443,7 @@
         <v>209774119183943.34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>227</v>
       </c>
@@ -9407,17 +9451,17 @@
       <c r="C15" s="21"/>
       <c r="D15" s="118"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>230</v>
       </c>
@@ -9431,22 +9475,22 @@
         <v>1.3008842296103896E+16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>234</v>
       </c>
@@ -9460,7 +9504,7 @@
         <v>454305066667236</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>235</v>
       </c>
@@ -9474,7 +9518,7 @@
         <v>912814806331063.13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>236</v>
       </c>
@@ -9488,12 +9532,12 @@
         <v>192421819712375.16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>238</v>
       </c>
@@ -9507,17 +9551,17 @@
         <v>228862417190496.03</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>241</v>
       </c>
@@ -9525,7 +9569,7 @@
       <c r="C29" s="21"/>
       <c r="D29" s="118"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>242</v>
       </c>
@@ -9539,12 +9583,12 @@
         <v>228862417190496.03</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>244</v>
       </c>
@@ -9558,7 +9602,7 @@
         <v>146765772773884.72</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>245</v>
       </c>
@@ -9572,7 +9616,7 @@
         <v>124551010460660.92</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>246</v>
       </c>
@@ -9586,12 +9630,12 @@
         <v>529412312419931.56</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>248</v>
       </c>
@@ -9599,17 +9643,17 @@
       <c r="C36" s="21"/>
       <c r="D36" s="118"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>251</v>
       </c>
@@ -9617,7 +9661,7 @@
       <c r="C39" s="21"/>
       <c r="D39" s="118"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>252</v>
       </c>
@@ -9631,12 +9675,12 @@
         <v>503588738309366.13</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>254</v>
       </c>
@@ -9644,7 +9688,7 @@
       <c r="C42" s="21"/>
       <c r="D42" s="118"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>255</v>
       </c>
@@ -9652,7 +9696,7 @@
       <c r="C43" s="21"/>
       <c r="D43" s="118"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>256</v>
       </c>
@@ -9660,12 +9704,12 @@
       <c r="C44" s="21"/>
       <c r="D44" s="118"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>258</v>
       </c>
@@ -9679,17 +9723,17 @@
         <v>68494919170594.82</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>261</v>
       </c>
@@ -9703,7 +9747,7 @@
         <v>7505232593032.1016</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>262</v>
       </c>
@@ -9717,12 +9761,12 @@
         <v>59226314110120.883</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>264</v>
       </c>
@@ -9736,7 +9780,7 @@
         <v>858747223539.39026</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>265</v>
       </c>
@@ -9750,47 +9794,47 @@
         <v>359529497146.71466</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>274</v>
       </c>
@@ -9804,12 +9848,12 @@
         <v>1647154454616423.5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>276</v>
       </c>
@@ -9817,7 +9861,7 @@
       <c r="C64" s="21"/>
       <c r="D64" s="118"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>277</v>
       </c>
@@ -9831,7 +9875,7 @@
         <v>2396982808892776</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>278</v>
       </c>
@@ -9845,17 +9889,17 @@
         <v>548176417606920.19</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>281</v>
       </c>
@@ -9869,7 +9913,7 @@
         <v>548176417606920.19</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>282</v>
       </c>
@@ -9883,12 +9927,12 @@
         <v>548176417606920.19</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>284</v>
       </c>
@@ -9902,7 +9946,7 @@
         <v>1209547641609381.8</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>285</v>
       </c>
@@ -9916,7 +9960,7 @@
         <v>322209696667031.25</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>286</v>
       </c>
@@ -9930,12 +9974,12 @@
         <v>591585903780558.5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>288</v>
       </c>
@@ -9949,17 +9993,17 @@
         <v>2306510850327013.5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>291</v>
       </c>
@@ -9973,7 +10017,7 @@
         <v>2600691557793615.5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>292</v>
       </c>
@@ -9987,7 +10031,7 @@
         <v>1772953517495779.8</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>293</v>
       </c>
@@ -9998,78 +10042,78 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC50367-EE74-4E81-ADCB-232371598AAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="68.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="68.1328125" customWidth="1"/>
+    <col min="2" max="2" width="17.86328125" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" customWidth="1"/>
+    <col min="6" max="6" width="12.1328125" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="117"/>
     </row>
-    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" s="112" t="s">
         <v>369</v>
       </c>
@@ -10089,7 +10133,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="114" t="s">
         <v>425</v>
       </c>
@@ -10109,7 +10153,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="115" t="s">
         <v>30</v>
       </c>
@@ -10129,7 +10173,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="17" t="s">
         <v>28</v>
       </c>
@@ -10137,7 +10181,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="24">
         <v>43902</v>
       </c>
@@ -10145,7 +10189,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="24">
         <v>43917</v>
       </c>
@@ -10153,7 +10197,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="24">
         <v>43948</v>
       </c>
@@ -10161,7 +10205,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="24">
         <v>43964</v>
       </c>
@@ -10169,7 +10213,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="24">
         <v>43971</v>
       </c>
@@ -10177,7 +10221,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>375</v>
       </c>
@@ -10186,7 +10230,7 @@
         <v>-0.22935387248609329</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>376</v>
       </c>
@@ -10195,7 +10239,7 @@
         <v>-0.22464698331193839</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>377</v>
       </c>
@@ -10204,7 +10248,7 @@
         <v>-4.3217800599058623E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>383</v>
       </c>
@@ -10213,7 +10257,7 @@
         <v>-5.1347881899871634E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A28" s="137" t="s">
         <v>385</v>
       </c>
@@ -10228,7 +10272,7 @@
       <c r="J28" s="137"/>
       <c r="K28" s="137"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="83"/>
       <c r="B29" s="84"/>
       <c r="C29" s="84"/>
@@ -10243,7 +10287,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="63.75" x14ac:dyDescent="0.45">
       <c r="A30" s="85" t="s">
         <v>387</v>
       </c>
@@ -10278,7 +10322,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="87">
         <v>1</v>
       </c>
@@ -10313,7 +10357,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="88" t="s">
         <v>397</v>
       </c>
@@ -10348,7 +10392,7 @@
         <v>587.80999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="88" t="s">
         <v>398</v>
       </c>
@@ -10383,7 +10427,7 @@
         <v>593.0035979999999</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="88" t="s">
         <v>399</v>
       </c>
@@ -10418,7 +10462,7 @@
         <v>638.73362599999996</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="92" t="s">
         <v>400</v>
       </c>
@@ -10453,7 +10497,7 @@
         <v>731.38944500000025</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="92" t="s">
         <v>401</v>
       </c>
@@ -10488,7 +10532,7 @@
         <v>739.34202300000015</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="92" t="s">
         <v>402</v>
       </c>
@@ -10523,7 +10567,7 @@
         <v>822.13079499999992</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="88" t="s">
         <v>403</v>
       </c>
@@ -10558,7 +10602,7 @@
         <v>836.727261</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="88" t="s">
         <v>404</v>
       </c>
@@ -10593,7 +10637,7 @@
         <v>837.22004600000025</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="88" t="s">
         <v>405</v>
       </c>
@@ -10628,7 +10672,7 @@
         <v>898.51850399999978</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="88" t="s">
         <v>406</v>
       </c>
@@ -10663,7 +10707,7 @@
         <v>968.25316599999974</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="95" t="s">
         <v>407</v>
       </c>
@@ -10698,7 +10742,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="97" t="s">
         <v>408</v>
       </c>
@@ -10733,7 +10777,7 @@
         <v>7.7610713290329585</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="99" t="s">
         <v>409</v>
       </c>
@@ -10768,7 +10812,7 @@
         <v>5.1175416324522383</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="101" t="s">
         <v>410</v>
       </c>
@@ -10783,7 +10827,7 @@
       <c r="J45" s="103"/>
       <c r="K45" s="103"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="104" t="s">
         <v>411</v>
       </c>
@@ -10798,7 +10842,7 @@
       <c r="J46" s="103"/>
       <c r="K46" s="103"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="105" t="s">
         <v>412</v>
       </c>
@@ -10813,7 +10857,7 @@
       <c r="J47" s="103"/>
       <c r="K47" s="103"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="106" t="s">
         <v>413</v>
       </c>
@@ -10828,17 +10872,17 @@
       <c r="J48" s="107"/>
       <c r="K48" s="107"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>387</v>
       </c>
@@ -10849,7 +10893,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="88" t="s">
         <v>397</v>
       </c>
@@ -10865,7 +10909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="88" t="s">
         <v>398</v>
       </c>
@@ -10881,7 +10925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="88" t="s">
         <v>399</v>
       </c>
@@ -10897,7 +10941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="92" t="s">
         <v>400</v>
       </c>
@@ -10913,7 +10957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="92" t="s">
         <v>401</v>
       </c>
@@ -10929,7 +10973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="92" t="s">
         <v>402</v>
       </c>
@@ -10945,7 +10989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="88" t="s">
         <v>403</v>
       </c>
@@ -10961,7 +11005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="88" t="s">
         <v>404</v>
       </c>
@@ -10977,7 +11021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="88" t="s">
         <v>405</v>
       </c>
@@ -10993,7 +11037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="88" t="s">
         <v>406</v>
       </c>
@@ -11009,7 +11053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="108" t="s">
         <v>417</v>
       </c>
@@ -11024,7 +11068,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A65" s="108" t="s">
         <v>418</v>
       </c>
@@ -11039,7 +11083,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="27" x14ac:dyDescent="0.45">
       <c r="A68" s="67" t="s">
         <v>452</v>
       </c>
@@ -11049,11 +11093,11 @@
       </c>
       <c r="C68" s="20"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A69" s="67"/>
       <c r="B69" s="29"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C70" s="138" t="s">
         <v>322</v>
       </c>
@@ -11075,7 +11119,7 @@
       <c r="M70" s="138"/>
       <c r="N70" s="138"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B71" s="35" t="s">
         <v>300</v>
       </c>
@@ -11096,7 +11140,7 @@
       <c r="M71" s="68"/>
       <c r="N71" s="69"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B72" s="26">
         <v>43891</v>
       </c>
@@ -11137,7 +11181,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>424</v>
       </c>
@@ -11194,7 +11238,7 @@
         <v>62.303508842222222</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>363</v>
       </c>
@@ -11203,7 +11247,7 @@
         <v>730.95319017374788</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A76" s="18" t="s">
         <v>423</v>
       </c>
@@ -11212,7 +11256,7 @@
         <v>747.64210610666669</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>422</v>
       </c>
@@ -11230,12 +11274,12 @@
     <mergeCell ref="L70:N70"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" xr:uid="{C5A35779-408B-4E54-BF8E-FB2D5ACFBFFC}"/>
-    <hyperlink ref="B20" r:id="rId2" xr:uid="{1C4760E6-465F-4A64-A446-0BD270045867}"/>
-    <hyperlink ref="B18" r:id="rId3" xr:uid="{EECD32F9-5932-4A6C-A369-A77DB548B597}"/>
-    <hyperlink ref="B19" r:id="rId4" xr:uid="{DE0C3CBC-C08E-4BC8-9ACB-AC395E63EBF4}"/>
-    <hyperlink ref="B21" r:id="rId5" xr:uid="{AACC65AB-AFE1-498A-892C-4B9ADD8D4181}"/>
-    <hyperlink ref="A51" r:id="rId6" xr:uid="{2C59E7AD-C8B7-4B9E-BE20-A838F26B8179}"/>
+    <hyperlink ref="B17" r:id="rId1"/>
+    <hyperlink ref="B20" r:id="rId2"/>
+    <hyperlink ref="B18" r:id="rId3"/>
+    <hyperlink ref="B19" r:id="rId4"/>
+    <hyperlink ref="B21" r:id="rId5"/>
+    <hyperlink ref="A51" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -11244,56 +11288,56 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55D3CDF-2AD0-49F5-A56E-08148D574A2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E26" sqref="E26:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.3984375" customWidth="1"/>
+    <col min="2" max="2" width="13.1328125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="117"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>-0.2</v>
       </c>
@@ -11301,7 +11345,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>337</v>
       </c>
@@ -11309,12 +11353,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="57" t="s">
         <v>357</v>
       </c>
@@ -11332,7 +11376,7 @@
       <c r="M12" s="58"/>
       <c r="N12" s="59"/>
     </row>
-    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A13" s="141" t="s">
         <v>358</v>
       </c>
@@ -11350,7 +11394,7 @@
       <c r="M13" s="142"/>
       <c r="N13" s="143"/>
     </row>
-    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="144" t="s">
         <v>359</v>
       </c>
@@ -11368,7 +11412,7 @@
       <c r="M14" s="144"/>
       <c r="N14" s="144"/>
     </row>
-    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A15" s="60" t="s">
         <v>338</v>
       </c>
@@ -11412,7 +11456,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="62" t="s">
         <v>352</v>
       </c>
@@ -11454,7 +11498,7 @@
         <v>27930</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="62" t="s">
         <v>353</v>
       </c>
@@ -11496,7 +11540,7 @@
         <v>30812</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="27" x14ac:dyDescent="0.45">
       <c r="A18" s="62" t="s">
         <v>354</v>
       </c>
@@ -11541,7 +11585,7 @@
         <v>58742</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>1</v>
       </c>
@@ -11579,7 +11623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="67" t="s">
         <v>296</v>
       </c>
@@ -11587,13 +11631,13 @@
         <v>355</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="67"/>
       <c r="B21" s="3" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A22" s="67" t="s">
         <v>365</v>
       </c>
@@ -11605,7 +11649,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>362</v>
       </c>
@@ -11615,11 +11659,11 @@
       </c>
       <c r="C23" s="20"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="67"/>
       <c r="B24" s="29"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C25" s="138" t="s">
         <v>322</v>
       </c>
@@ -11641,7 +11685,7 @@
       <c r="M25" s="138"/>
       <c r="N25" s="138"/>
     </row>
-    <row r="26" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C26" s="55"/>
       <c r="E26" s="139" t="s">
         <v>327</v>
@@ -11655,7 +11699,7 @@
       <c r="M26" s="68"/>
       <c r="N26" s="69"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B27" s="35" t="s">
         <v>300</v>
       </c>
@@ -11686,7 +11730,7 @@
       <c r="M27" s="68"/>
       <c r="N27" s="69"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B28" s="26">
         <v>43891</v>
       </c>
@@ -11727,7 +11771,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>360</v>
       </c>
@@ -11784,7 +11828,7 @@
         <v>5438.5450760806998</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>363</v>
       </c>
@@ -11793,7 +11837,7 @@
         <v>60911.704852103838</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="18" t="s">
         <v>423</v>
       </c>
@@ -11802,7 +11846,7 @@
         <v>64180.278421376432</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>364</v>
       </c>
@@ -11822,8 +11866,8 @@
     <mergeCell ref="L25:N25"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{2DD26E6F-4967-4194-B864-9A4F742EE732}"/>
-    <hyperlink ref="B21" r:id="rId2" xr:uid="{B2E51C87-9CBC-47BA-9BDF-27201FC56B01}"/>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B21" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -11833,54 +11877,54 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18941497-0BD1-4D67-8DD6-CD46433DFD9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="117"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <f>('POSOCO data'!C7-'POSOCO data'!C2)/'POSOCO data'!C2</f>
         <v>-0.22371967654986524</v>
@@ -11889,22 +11933,22 @@
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>-0.20399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>296</v>
       </c>
@@ -11912,17 +11956,17 @@
         <v>332</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="56">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>296</v>
       </c>
@@ -11930,46 +11974,46 @@
         <v>334</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="23"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B40" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" xr:uid="{9F635E06-855D-4BA3-85AF-1DFA248F49DF}"/>
-    <hyperlink ref="B20" r:id="rId2" xr:uid="{47E6BE99-C24C-4F01-A3C3-C3270F11C59C}"/>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B20" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E216E8-8BAE-474B-A18A-2E5D3C7D98E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" customWidth="1"/>
+    <col min="3" max="3" width="25.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>298</v>
       </c>
@@ -11977,7 +12021,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11988,7 +12032,7 @@
         <v>3339</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -12000,7 +12044,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <f t="shared" ref="A4:A57" si="0">A3+1</f>
         <v>3</v>
@@ -12012,7 +12056,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -12024,7 +12068,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -12036,7 +12080,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="81">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -12048,7 +12092,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -12060,7 +12104,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -12072,7 +12116,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -12084,7 +12128,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -12096,7 +12140,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -12108,7 +12152,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -12120,7 +12164,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -12132,7 +12176,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -12144,7 +12188,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -12156,7 +12200,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -12168,7 +12212,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -12180,7 +12224,7 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -12192,7 +12236,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -12204,7 +12248,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -12216,7 +12260,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -12228,7 +12272,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -12240,7 +12284,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -12252,7 +12296,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -12264,7 +12308,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -12276,7 +12320,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -12288,7 +12332,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -12300,7 +12344,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -12312,7 +12356,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -12324,7 +12368,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -12336,7 +12380,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -12348,7 +12392,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -12360,7 +12404,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -12372,7 +12416,7 @@
         <v>2919</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -12384,7 +12428,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -12396,7 +12440,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -12408,7 +12452,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -12420,7 +12464,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -12432,7 +12476,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -12444,7 +12488,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -12456,7 +12500,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -12468,7 +12512,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -12480,7 +12524,7 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -12492,7 +12536,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -12504,7 +12548,7 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -12516,7 +12560,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -12528,7 +12572,7 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -12540,7 +12584,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -12552,7 +12596,7 @@
         <v>3193</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -12564,7 +12608,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -12576,7 +12620,7 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -12588,7 +12632,7 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -12600,7 +12644,7 @@
         <v>3248</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -12612,7 +12656,7 @@
         <v>3313</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -12624,7 +12668,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -12636,7 +12680,7 @@
         <v>3373</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -12648,10 +12692,10 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C58" s="25"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>296</v>
       </c>
@@ -12660,39 +12704,39 @@
       </c>
       <c r="C59" s="25"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B60" s="3" t="s">
         <v>442</v>
       </c>
       <c r="C60" s="25"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C61" s="25"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C62" s="25"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C63" s="25"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C64" s="25"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C65" s="25"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C66" s="25"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C67" s="25"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C68" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B60" r:id="rId1" xr:uid="{16DC7598-208D-49FB-ADBE-B9B15D91B269}"/>
+    <hyperlink ref="B60" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
